--- a/Data/Machine Learning/aus_trade.xlsx
+++ b/Data/Machine Learning/aus_trade.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theko\UWA\Project_Take2\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arvin\OneDrive\Documents\GitHub\Final_Project_2020\Data\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F13CB8-35EA-4D89-A898-2B6094B7E53E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD67F0E6-50AF-4F0A-95A6-88CBA37BC942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="360" windowWidth="25786" windowHeight="14133" activeTab="1" xr2:uid="{C5E397A9-153D-4BF5-BBE6-20982ABBF9AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5E397A9-153D-4BF5-BBE6-20982ABBF9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Total_g_s_exports" sheetId="1" r:id="rId1"/>
     <sheet name="Total_g_s_imports" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -852,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -878,6 +879,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,18 +1194,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE59DA70-38A8-44D7-8EDB-F0E2CA65ADB2}">
-  <dimension ref="A1:AH231"/>
+  <dimension ref="A1:AH232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232:AH232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.46875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>239</v>
       </c>
@@ -1307,7 +1309,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>168575.26972000004</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>60417.153432000006</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>28222.26412</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1723,7 +1725,7 @@
         <v>25440.338678999997</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1827,7 +1829,7 @@
         <v>21787.045464000003</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>21207.749627000001</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2037,7 @@
         <v>16886.822235</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>16565.765075000003</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2243,7 +2245,7 @@
         <v>14304.360426000001</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2347,7 +2349,7 @@
         <v>11699.606211999999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2451,7 +2453,7 @@
         <v>10705.345106000001</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2555,7 +2557,7 @@
         <v>8049.0568720000001</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2659,7 +2661,7 @@
         <v>7931.438451</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>5689.8150149999992</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>4836.5775139999996</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>4303.35898</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3075,7 +3077,7 @@
         <v>4157.9904270000006</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3179,7 +3181,7 @@
         <v>4021.7758960000001</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3283,7 +3285,7 @@
         <v>3396.0390079999993</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>3089.5560049999999</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>3049.4701290000003</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>3035.5527089999996</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>2701.2700880000002</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>2313.108201</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>1904.15137</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -4011,7 +4013,7 @@
         <v>1771.660705</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -4115,7 +4117,7 @@
         <v>1524.2104551764705</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>1438.5101503860337</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -4323,7 +4325,7 @@
         <v>1298.9321420000001</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>1214.2880198660982</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>1197.3918123655219</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -4635,7 +4637,7 @@
         <v>1194.2382562055768</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -4739,7 +4741,7 @@
         <v>1090.7563869292464</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>1039.6299226137357</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>904.47658300000012</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>893.24071676470589</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -5155,7 +5157,7 @@
         <v>828.38990954545454</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>805.27325599999995</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -5363,7 +5365,7 @@
         <v>722.51137394117654</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>677.70150999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -5571,7 +5573,7 @@
         <v>637.83656700000006</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -5675,7 +5677,7 @@
         <v>618.03863710644259</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -5779,7 +5781,7 @@
         <v>606.08935162271803</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>573.96761828865965</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>517.09429599999999</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>516.38815555670101</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -6195,7 +6197,7 @@
         <v>513.43041762111091</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -6299,7 +6301,7 @@
         <v>490.67399018206959</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -6403,7 +6405,7 @@
         <v>440.47605400000009</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>415.49606545454543</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -6611,7 +6613,7 @@
         <v>402.32251477529383</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -6715,7 +6717,7 @@
         <v>384.02127982352937</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -6819,7 +6821,7 @@
         <v>327.84375528865979</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -6923,7 +6925,7 @@
         <v>302.00698290774909</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -7027,7 +7029,7 @@
         <v>272.24840730223121</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>270.8594218942153</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -7235,7 +7237,7 @@
         <v>269.22800945955288</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -7339,7 +7341,7 @@
         <v>267.95234140206185</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>265.18982155796266</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -7547,7 +7549,7 @@
         <v>257.8817271027886</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -7651,7 +7653,7 @@
         <v>256.03574957409541</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -7755,7 +7757,7 @@
         <v>249.30138315463918</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -7859,7 +7861,7 @@
         <v>233.04528089800002</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -7963,7 +7965,7 @@
         <v>227.09459274003225</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -8055,7 +8057,7 @@
         <v>222.04518652941178</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -8159,7 +8161,7 @@
         <v>213.73239433579337</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -8263,7 +8265,7 @@
         <v>189.15313639940075</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -8367,7 +8369,7 @@
         <v>168.09976094117644</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>165.80220308247416</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -8575,7 +8577,7 @@
         <v>153.96346912330029</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -8679,7 +8681,7 @@
         <v>153.31977308683474</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -8783,7 +8785,7 @@
         <v>139.70644241176473</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -8887,7 +8889,7 @@
         <v>135.19864823249301</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -8991,7 +8993,7 @@
         <v>127.485433</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -9085,7 +9087,7 @@
         <v>115.95272070588234</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -9179,7 +9181,7 @@
         <v>114.38257570588236</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -9283,7 +9285,7 @@
         <v>114.05848500738006</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -9387,7 +9389,7 @@
         <v>109.67867799999999</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -9491,7 +9493,7 @@
         <v>107.02502690909076</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -9595,7 +9597,7 @@
         <v>103.87422696473843</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -9699,7 +9701,7 @@
         <v>102.49475223529413</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -9803,7 +9805,7 @@
         <v>92.162572941176478</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -9907,7 +9909,7 @@
         <v>91.118674804123714</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -10001,7 +10003,7 @@
         <v>90.898781051394323</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -10105,7 +10107,7 @@
         <v>90.560175886597932</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -10177,7 +10179,7 @@
         <v>90.020011823529416</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -10281,7 +10283,7 @@
         <v>81.382326182069605</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -10385,7 +10387,7 @@
         <v>77.664346977591066</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -10489,7 +10491,7 @@
         <v>71.766042308365968</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -10593,7 +10595,7 @@
         <v>71.200121502189447</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -10697,7 +10699,7 @@
         <v>67.98388283193276</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -10801,7 +10803,7 @@
         <v>66.166177927835051</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -10905,7 +10907,7 @@
         <v>62.336320663865543</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -11009,7 +11011,7 @@
         <v>60.326024822309279</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -11113,7 +11115,7 @@
         <v>58.799456605042025</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -11217,7 +11219,7 @@
         <v>58.457417352941178</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -11311,7 +11313,7 @@
         <v>51.310799000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -11403,7 +11405,7 @@
         <v>50.765634470588232</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -11497,7 +11499,7 @@
         <v>48.242111039640477</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -11601,7 +11603,7 @@
         <v>45.678270272727275</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -11705,7 +11707,7 @@
         <v>43.738092705882352</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -11809,7 +11811,7 @@
         <v>41.932756670103096</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>40.597753294117652</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -12007,7 +12009,7 @@
         <v>39.501055727272728</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -12111,7 +12113,7 @@
         <v>38.386195546125464</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -12215,7 +12217,7 @@
         <v>36.483914237113403</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -12319,7 +12321,7 @@
         <v>36.235559058823526</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -12413,7 +12415,7 @@
         <v>36.012340058823526</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -12517,7 +12519,7 @@
         <v>34.977716927835054</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -12621,7 +12623,7 @@
         <v>34.792085819188195</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -12725,7 +12727,7 @@
         <v>34.319204432989686</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -12829,7 +12831,7 @@
         <v>33.525364606490868</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -12933,7 +12935,7 @@
         <v>31.175257731958766</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -13037,7 +13039,7 @@
         <v>30.032714185567002</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -13141,7 +13143,7 @@
         <v>29.57952868041237</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -13245,7 +13247,7 @@
         <v>26.091087313725492</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -13339,7 +13341,7 @@
         <v>25.817512904665314</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -13443,7 +13445,7 @@
         <v>24.054843915129155</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -13547,7 +13549,7 @@
         <v>23.135918</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -13607,7 +13609,7 @@
         <v>22.819101703853956</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -13701,7 +13703,7 @@
         <v>21.566085705882351</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -13805,7 +13807,7 @@
         <v>20.560525462548974</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -13909,7 +13911,7 @@
         <v>19.675716989690724</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -14013,7 +14015,7 @@
         <v>19.073603363636362</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -14117,7 +14119,7 @@
         <v>18.168356546125459</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -14221,7 +14223,7 @@
         <v>18.072681313725489</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -14325,7 +14327,7 @@
         <v>17.90886749484536</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -14429,7 +14431,7 @@
         <v>17.485714865979382</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -14533,7 +14535,7 @@
         <v>15.48986974226804</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -14637,7 +14639,7 @@
         <v>14.725736549815499</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -14691,7 +14693,7 @@
         <v>14.560709309278351</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -14795,7 +14797,7 @@
         <v>14.286242185567009</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -14899,7 +14901,7 @@
         <v>13.647165092250921</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -15003,7 +15005,7 @@
         <v>13.093110185567006</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -15097,7 +15099,7 @@
         <v>12.739167782668817</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -15201,7 +15203,7 @@
         <v>12.361028313725491</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -15305,7 +15307,7 @@
         <v>12.146474</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -15409,7 +15411,7 @@
         <v>11.684408518207283</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -15503,7 +15505,7 @@
         <v>11.258597731274486</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -15607,7 +15609,7 @@
         <v>11.010358</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -15711,7 +15713,7 @@
         <v>10.985713309278349</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -15815,7 +15817,7 @@
         <v>10.401775061855671</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -15919,7 +15921,7 @@
         <v>10.174232638376383</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -16023,7 +16025,7 @@
         <v>9.661959247422681</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -16127,7 +16129,7 @@
         <v>8.9997780922509225</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -16221,7 +16223,7 @@
         <v>8.5851772008113585</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -16325,7 +16327,7 @@
         <v>8.5102013653136535</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -16429,7 +16431,7 @@
         <v>8.4792715454545462</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -16533,7 +16535,7 @@
         <v>7.956522727272727</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -16637,7 +16639,7 @@
         <v>7.6429691855670105</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -16741,7 +16743,7 @@
         <v>7.6154249999999992</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -16845,7 +16847,7 @@
         <v>7.2671221855670103</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -16949,7 +16951,7 @@
         <v>6.98203437113402</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -17043,7 +17045,7 @@
         <v>6.8861728012170387</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -17147,7 +17149,7 @@
         <v>6.6113410618556703</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -17241,7 +17243,7 @@
         <v>6.5137395256971651</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -17345,7 +17347,7 @@
         <v>6.2595965182072826</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -17449,7 +17451,7 @@
         <v>6.1894192008113595</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -17553,7 +17555,7 @@
         <v>5.5326940618556701</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -17657,7 +17659,7 @@
         <v>5.4934771237113402</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -17761,7 +17763,7 @@
         <v>4.8468624545454544</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -17865,7 +17867,7 @@
         <v>4.8368402474226802</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -17969,7 +17971,7 @@
         <v>4.7801420000000006</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -18073,7 +18075,7 @@
         <v>4.6536471855670101</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -18177,7 +18179,7 @@
         <v>4.5740240513943302</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
@@ -18281,7 +18283,7 @@
         <v>4.5547041237113408</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -18385,7 +18387,7 @@
         <v>4.5187322474226805</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -18489,7 +18491,7 @@
         <v>4.1524660000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -18593,7 +18595,7 @@
         <v>4.1293271855670097</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -18697,7 +18699,7 @@
         <v>3.5495252730627307</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
@@ -18791,7 +18793,7 @@
         <v>3.2244790513943302</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
@@ -18895,7 +18897,7 @@
         <v>3.1077932730627302</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
@@ -18999,7 +19001,7 @@
         <v>2.8521975461254612</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
@@ -19103,7 +19105,7 @@
         <v>2.8323300618556697</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -19207,7 +19209,7 @@
         <v>2.4174717591036412</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
@@ -19311,7 +19313,7 @@
         <v>2.2693761237113401</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -19415,7 +19417,7 @@
         <v>2.1788430513943302</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
@@ -19519,7 +19521,7 @@
         <v>2.1272949999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
@@ -19579,7 +19581,7 @@
         <v>2.0863286004056794</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
@@ -19683,7 +19685,7 @@
         <v>2.0419839999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -19787,7 +19789,7 @@
         <v>1.8376250000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
@@ -19891,7 +19893,7 @@
         <v>1.8036620000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
@@ -19995,7 +19997,7 @@
         <v>1.5804952730627306</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -20099,7 +20101,7 @@
         <v>1.5127392730627305</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -20203,7 +20205,7 @@
         <v>1.4796532730627305</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -20307,7 +20309,7 @@
         <v>1.4239580000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -20411,7 +20413,7 @@
         <v>1.3557340618556701</v>
       </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -20515,7 +20517,7 @@
         <v>1.3232980000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -20619,7 +20621,7 @@
         <v>1.1771990618556702</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -20723,7 +20725,7 @@
         <v>1.1445410618556702</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -20817,7 +20819,7 @@
         <v>1.0816333002028398</v>
       </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -20921,7 +20923,7 @@
         <v>1.0526869999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -21025,7 +21027,7 @@
         <v>0.88369700000000007</v>
       </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -21129,7 +21131,7 @@
         <v>0.88108999999999993</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -21233,7 +21235,7 @@
         <v>0.84387900000000005</v>
       </c>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -21337,7 +21339,7 @@
         <v>0.80451700000000004</v>
       </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -21441,7 +21443,7 @@
         <v>0.75797400000000004</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -21545,7 +21547,7 @@
         <v>0.71093499999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -21649,7 +21651,7 @@
         <v>0.70780799999999988</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
@@ -21753,7 +21755,7 @@
         <v>0.50479499999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -21857,7 +21859,7 @@
         <v>0.42709199999999992</v>
       </c>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
@@ -21961,7 +21963,7 @@
         <v>0.25398600000000005</v>
       </c>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
@@ -22065,7 +22067,7 @@
         <v>0.24960599999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
@@ -22169,7 +22171,7 @@
         <v>0.24614499999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -22273,7 +22275,7 @@
         <v>0.23768599999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
@@ -22377,7 +22379,7 @@
         <v>0.16650399999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
@@ -22481,7 +22483,7 @@
         <v>0.12285900000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
@@ -22585,7 +22587,7 @@
         <v>0.102684</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
@@ -22689,7 +22691,7 @@
         <v>9.8309000000000007E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
@@ -22783,7 +22785,7 @@
         <v>5.3367000000000005E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
@@ -22877,7 +22879,7 @@
         <v>2.7975999999999997E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
@@ -22981,7 +22983,7 @@
         <v>6.9799999999999992E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
@@ -23085,7 +23087,7 @@
         <v>4.2929999999999999E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
@@ -23189,7 +23191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
@@ -23293,7 +23295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
@@ -23397,7 +23399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -23605,7 +23607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
@@ -23709,7 +23711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -23813,7 +23815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -23917,7 +23919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>222</v>
       </c>
@@ -24021,7 +24023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
@@ -24125,7 +24127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
@@ -24229,7 +24231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -24333,7 +24335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
@@ -24437,7 +24439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -24541,7 +24543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
@@ -24595,7 +24597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
@@ -24685,7 +24687,7 @@
       <c r="AG230" s="3"/>
       <c r="AH230" s="3"/>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>230</v>
       </c>
@@ -24787,6 +24789,140 @@
       </c>
       <c r="AH231" s="8">
         <v>7442.4365439204266</v>
+      </c>
+    </row>
+    <row r="232" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B232" s="10">
+        <f>SUM(B2:B231)</f>
+        <v>43401.380032000001</v>
+      </c>
+      <c r="C232" s="10">
+        <f t="shared" ref="C232:AH232" si="0">SUM(C2:C231)</f>
+        <v>49253.354031999988</v>
+      </c>
+      <c r="D232" s="10">
+        <f t="shared" si="0"/>
+        <v>53697.96803199999</v>
+      </c>
+      <c r="E232" s="10">
+        <f t="shared" si="0"/>
+        <v>59048.775457000025</v>
+      </c>
+      <c r="F232" s="10">
+        <f t="shared" si="0"/>
+        <v>64333.263511000012</v>
+      </c>
+      <c r="G232" s="10">
+        <f t="shared" si="0"/>
+        <v>69060.342372999992</v>
+      </c>
+      <c r="H232" s="10">
+        <f t="shared" si="0"/>
+        <v>75394.182434000046</v>
+      </c>
+      <c r="I232" s="10">
+        <f t="shared" si="0"/>
+        <v>78928.667026999974</v>
+      </c>
+      <c r="J232" s="10">
+        <f t="shared" si="0"/>
+        <v>88215.584740999999</v>
+      </c>
+      <c r="K232" s="10">
+        <f t="shared" si="0"/>
+        <v>93658.133215999958</v>
+      </c>
+      <c r="L232" s="10">
+        <f t="shared" si="0"/>
+        <v>103302.88986899992</v>
+      </c>
+      <c r="M232" s="10">
+        <f t="shared" si="0"/>
+        <v>104338.480373</v>
+      </c>
+      <c r="N232" s="10">
+        <f t="shared" si="0"/>
+        <v>106953.88285800013</v>
+      </c>
+      <c r="O232" s="10">
+        <f t="shared" si="0"/>
+        <v>137745.59399699996</v>
+      </c>
+      <c r="P232" s="10">
+        <f t="shared" si="0"/>
+        <v>149275.752286</v>
+      </c>
+      <c r="Q232" s="10">
+        <f t="shared" si="0"/>
+        <v>147621.17440299995</v>
+      </c>
+      <c r="R232" s="10">
+        <f t="shared" si="0"/>
+        <v>138766.56466800004</v>
+      </c>
+      <c r="S232" s="10">
+        <f t="shared" si="0"/>
+        <v>149997.56246900005</v>
+      </c>
+      <c r="T232" s="10">
+        <f t="shared" si="0"/>
+        <v>174482.53806999998</v>
+      </c>
+      <c r="U232" s="10">
+        <f t="shared" si="0"/>
+        <v>202866.39141199988</v>
+      </c>
+      <c r="V232" s="10">
+        <f t="shared" si="0"/>
+        <v>221842.97661400004</v>
+      </c>
+      <c r="W232" s="10">
+        <f t="shared" si="0"/>
+        <v>281833.25661899999</v>
+      </c>
+      <c r="X232" s="10">
+        <f t="shared" si="0"/>
+        <v>253825.63870100005</v>
+      </c>
+      <c r="Y232" s="10">
+        <f t="shared" si="0"/>
+        <v>288906.06559999997</v>
+      </c>
+      <c r="Z232" s="10">
+        <f t="shared" si="0"/>
+        <v>319436.82060700015</v>
+      </c>
+      <c r="AA232" s="10">
+        <f t="shared" si="0"/>
+        <v>306166.36162499961</v>
+      </c>
+      <c r="AB232" s="10">
+        <f t="shared" si="0"/>
+        <v>323374.09260499961</v>
+      </c>
+      <c r="AC232" s="10">
+        <f t="shared" si="0"/>
+        <v>332199.27025799965</v>
+      </c>
+      <c r="AD232" s="10">
+        <f t="shared" si="0"/>
+        <v>323237.09799599997</v>
+      </c>
+      <c r="AE232" s="10">
+        <f t="shared" si="0"/>
+        <v>337075.63549700018</v>
+      </c>
+      <c r="AF232" s="10">
+        <f t="shared" si="0"/>
+        <v>386952.82001199998</v>
+      </c>
+      <c r="AG232" s="10">
+        <f t="shared" si="0"/>
+        <v>438292.09751500021</v>
+      </c>
+      <c r="AH232" s="10">
+        <f t="shared" si="0"/>
+        <v>492635.933808</v>
       </c>
     </row>
   </sheetData>
@@ -24796,18 +24932,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E44DC5B-E234-4752-A9BF-1291F1451EB3}">
-  <dimension ref="A1:AH231"/>
+  <dimension ref="A1:AH232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L205" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232:AH232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.46875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>239</v>
       </c>
@@ -24911,7 +25047,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -25015,7 +25151,7 @@
         <v>82841.712157575806</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -25119,7 +25255,7 @@
         <v>55532.514006240592</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -25223,7 +25359,7 @@
         <v>26357.1783781987</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -25327,7 +25463,7 @@
         <v>18183.631188399871</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -25431,7 +25567,7 @@
         <v>17385.424254299694</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -25535,7 +25671,7 @@
         <v>17246.245338160072</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -25639,7 +25775,7 @@
         <v>16294.41007408997</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -25743,7 +25879,7 @@
         <v>14541.92995406997</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -25847,7 +25983,7 @@
         <v>13096.198436809969</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -25951,7 +26087,7 @@
         <v>12252.954849160022</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>231</v>
       </c>
@@ -26055,7 +26191,7 @@
         <v>9809.6820694198395</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -26159,7 +26295,7 @@
         <v>9654.3518916999492</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>232</v>
       </c>
@@ -26263,7 +26399,7 @@
         <v>8658.256115110049</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -26367,7 +26503,7 @@
         <v>7572.5641502899898</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -26471,7 +26607,7 @@
         <v>7445.0391799099798</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -26575,7 +26711,7 @@
         <v>5869.6800822100913</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -26679,7 +26815,7 @@
         <v>5648.1484690000007</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -26783,7 +26919,7 @@
         <v>4989.4980440000008</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -26887,7 +27023,7 @@
         <v>4537.0794399999995</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>233</v>
       </c>
@@ -26991,7 +27127,7 @@
         <v>4495.18431529997</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -27095,7 +27231,7 @@
         <v>4289.5259421400006</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -27199,7 +27335,7 @@
         <v>4120.9082711400006</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -27303,7 +27439,7 @@
         <v>3744.3303340000002</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -27407,7 +27543,7 @@
         <v>3277.6038053399902</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -27511,7 +27647,7 @@
         <v>2993.4739969368361</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -27615,7 +27751,7 @@
         <v>2910.33599426</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -27719,7 +27855,7 @@
         <v>2012.9587407453675</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>234</v>
       </c>
@@ -27823,7 +27959,7 @@
         <v>1992.8915742603178</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -27927,7 +28063,7 @@
         <v>1871.0462445799999</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -28031,7 +28167,7 @@
         <v>1837.9708655099951</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -28135,7 +28271,7 @@
         <v>1793.5571041000003</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -28239,7 +28375,7 @@
         <v>1767.9628740065748</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -28343,7 +28479,7 @@
         <v>1419.9824612227517</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -28447,7 +28583,7 @@
         <v>1385.9646638970214</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -28551,7 +28687,7 @@
         <v>1268.3952150011949</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -28655,7 +28791,7 @@
         <v>1259.76071508</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -28759,7 +28895,7 @@
         <v>1250.4478213412626</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -28863,7 +28999,7 @@
         <v>1109.0085715784965</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -28967,7 +29103,7 @@
         <v>1086.3710175794481</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -29071,7 +29207,7 @@
         <v>1050.8987549999999</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -29175,7 +29311,7 @@
         <v>1046.214064419999</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
@@ -29279,7 +29415,7 @@
         <v>1042.7699512737036</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>150</v>
       </c>
@@ -29383,7 +29519,7 @@
         <v>905.94684833101053</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -29487,7 +29623,7 @@
         <v>883.04106121629411</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>152</v>
       </c>
@@ -29591,7 +29727,7 @@
         <v>872.96415966550524</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -29695,7 +29831,7 @@
         <v>860.41255609000007</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
@@ -29787,7 +29923,7 @@
         <v>822.13077848774628</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
@@ -29891,7 +30027,7 @@
         <v>791.55447023132092</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -29995,7 +30131,7 @@
         <v>708.77732163082783</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>31</v>
       </c>
@@ -30099,7 +30235,7 @@
         <v>587.33146491341563</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -30203,7 +30339,7 @@
         <v>585.93029532404182</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>235</v>
       </c>
@@ -30307,7 +30443,7 @@
         <v>556.78376441</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -30411,7 +30547,7 @@
         <v>537.58037235870597</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -30515,7 +30651,7 @@
         <v>480.91721865886279</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
@@ -30607,7 +30743,7 @@
         <v>478.95065933353254</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -30711,7 +30847,7 @@
         <v>359.83844651404661</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
@@ -30815,7 +30951,7 @@
         <v>342.92516508150965</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -30919,7 +31055,7 @@
         <v>342.06230700000003</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -31023,7 +31159,7 @@
         <v>321.96038823787518</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>97</v>
       </c>
@@ -31117,7 +31253,7 @@
         <v>280.32354753855344</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -31221,7 +31357,7 @@
         <v>271.46100716397228</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>107</v>
       </c>
@@ -31325,7 +31461,7 @@
         <v>250.07642741362821</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
@@ -31397,7 +31533,7 @@
         <v>235.93217086969514</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>96</v>
       </c>
@@ -31501,7 +31637,7 @@
         <v>234.89235561566048</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -31605,7 +31741,7 @@
         <v>232.70805407566942</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>236</v>
       </c>
@@ -31709,7 +31845,7 @@
         <v>203.82819487108011</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -31813,7 +31949,7 @@
         <v>198.21572918518518</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>48</v>
       </c>
@@ -31917,7 +32053,7 @@
         <v>190.56635992515064</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>58</v>
       </c>
@@ -32021,7 +32157,7 @@
         <v>189.4667461986063</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -32115,7 +32251,7 @@
         <v>179.02155807710699</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -32219,7 +32355,7 @@
         <v>176.29524341676367</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>53</v>
       </c>
@@ -32323,7 +32459,7 @@
         <v>168.04447396167248</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>187</v>
       </c>
@@ -32427,7 +32563,7 @@
         <v>165.83524658188156</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>20</v>
       </c>
@@ -32531,7 +32667,7 @@
         <v>160.71896699999999</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>57</v>
       </c>
@@ -32635,7 +32771,7 @@
         <v>153.69529205803997</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>143</v>
       </c>
@@ -32739,7 +32875,7 @@
         <v>153.6887165704388</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
@@ -32843,7 +32979,7 @@
         <v>148.64599349159531</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>121</v>
       </c>
@@ -32937,7 +33073,7 @@
         <v>148.27359369396294</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>119</v>
       </c>
@@ -33041,7 +33177,7 @@
         <v>129.07417520681412</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>88</v>
       </c>
@@ -33145,7 +33281,7 @@
         <v>128.14678640162981</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>59</v>
       </c>
@@ -33249,7 +33385,7 @@
         <v>121.21441114715721</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>120</v>
       </c>
@@ -33309,7 +33445,7 @@
         <v>120.36272343510763</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>60</v>
       </c>
@@ -33413,7 +33549,7 @@
         <v>119.046143</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>67</v>
       </c>
@@ -33517,7 +33653,7 @@
         <v>116.7170474278465</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>115</v>
       </c>
@@ -33621,7 +33757,7 @@
         <v>113.7719632334495</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -33725,7 +33861,7 @@
         <v>113.52810830783025</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>103</v>
       </c>
@@ -33819,7 +33955,7 @@
         <v>107.7657612821279</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>42</v>
       </c>
@@ -33923,7 +34059,7 @@
         <v>104.04313219790454</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -34027,7 +34163,7 @@
         <v>99.821494011734856</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>76</v>
       </c>
@@ -34121,7 +34257,7 @@
         <v>99.03618404562144</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>237</v>
       </c>
@@ -34225,7 +34361,7 @@
         <v>93.603868267180488</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>122</v>
       </c>
@@ -34329,7 +34465,7 @@
         <v>84.385092757373926</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>85</v>
       </c>
@@ -34433,7 +34569,7 @@
         <v>81.594827059233452</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>180</v>
       </c>
@@ -34537,7 +34673,7 @@
         <v>80.098503916376302</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>142</v>
       </c>
@@ -34641,7 +34777,7 @@
         <v>78.584652832752624</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>123</v>
       </c>
@@ -34745,7 +34881,7 @@
         <v>78.12421456794425</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>126</v>
       </c>
@@ -34849,7 +34985,7 @@
         <v>75.953457386495913</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>170</v>
       </c>
@@ -34953,7 +35089,7 @@
         <v>74.930638491916866</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>61</v>
       </c>
@@ -35057,7 +35193,7 @@
         <v>74.820686381541393</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
@@ -35161,7 +35297,7 @@
         <v>69.895411731707313</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>94</v>
       </c>
@@ -35265,7 +35401,7 @@
         <v>69.731651682207428</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -35369,7 +35505,7 @@
         <v>64.448803156794426</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>47</v>
       </c>
@@ -35473,7 +35609,7 @@
         <v>63.915032890263241</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>90</v>
       </c>
@@ -35577,7 +35713,7 @@
         <v>63.569363193979939</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>79</v>
       </c>
@@ -35681,7 +35817,7 @@
         <v>61.321624407407405</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>69</v>
       </c>
@@ -35785,7 +35921,7 @@
         <v>60.857670324041813</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>95</v>
       </c>
@@ -35889,7 +36025,7 @@
         <v>57.805656826542489</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>100</v>
       </c>
@@ -35993,7 +36129,7 @@
         <v>56.806962555555558</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>125</v>
       </c>
@@ -36097,7 +36233,7 @@
         <v>52.767722872979213</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>166</v>
       </c>
@@ -36201,7 +36337,7 @@
         <v>45.458574749128921</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>117</v>
       </c>
@@ -36295,7 +36431,7 @@
         <v>45.432785971945563</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>132</v>
       </c>
@@ -36399,7 +36535,7 @@
         <v>44.778492407665503</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>108</v>
       </c>
@@ -36493,7 +36629,7 @@
         <v>44.742507564255824</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>173</v>
       </c>
@@ -36597,7 +36733,7 @@
         <v>43.28553580831408</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>154</v>
       </c>
@@ -36691,7 +36827,7 @@
         <v>41.794156807026802</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>169</v>
       </c>
@@ -36795,7 +36931,7 @@
         <v>40.080018571428567</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>111</v>
       </c>
@@ -36899,7 +37035,7 @@
         <v>38.808910912891989</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>238</v>
       </c>
@@ -37003,7 +37139,7 @@
         <v>37.863421807026796</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
@@ -37107,7 +37243,7 @@
         <v>36.993593156794425</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>109</v>
       </c>
@@ -37211,7 +37347,7 @@
         <v>35.742739989547033</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>91</v>
       </c>
@@ -37315,7 +37451,7 @@
         <v>34.945912329452852</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>145</v>
       </c>
@@ -37419,7 +37555,7 @@
         <v>34.319379983833713</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>104</v>
       </c>
@@ -37523,7 +37659,7 @@
         <v>32.655555740740738</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>136</v>
       </c>
@@ -37627,7 +37763,7 @@
         <v>32.53676830849826</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>146</v>
       </c>
@@ -37721,7 +37857,7 @@
         <v>31.285635821054019</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>161</v>
       </c>
@@ -37825,7 +37961,7 @@
         <v>28.511796481481483</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>93</v>
       </c>
@@ -37929,7 +38065,7 @@
         <v>28.361633538998838</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>112</v>
       </c>
@@ -38033,7 +38169,7 @@
         <v>27.123942508783504</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -38087,7 +38223,7 @@
         <v>26.856295742160281</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>77</v>
       </c>
@@ -38191,7 +38327,7 @@
         <v>26.503446967667436</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>195</v>
       </c>
@@ -38295,7 +38431,7 @@
         <v>21.586608872979212</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>64</v>
       </c>
@@ -38399,7 +38535,7 @@
         <v>19.487312023152555</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
@@ -38503,7 +38639,7 @@
         <v>18.978534829268295</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>99</v>
       </c>
@@ -38597,7 +38733,7 @@
         <v>18.231440075166507</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>133</v>
       </c>
@@ -38701,7 +38837,7 @@
         <v>18.15755498383372</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>151</v>
       </c>
@@ -38805,7 +38941,7 @@
         <v>17.521234999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>83</v>
       </c>
@@ -38909,7 +39045,7 @@
         <v>15.442842832752614</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -39013,7 +39149,7 @@
         <v>15.118321</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>46</v>
       </c>
@@ -39117,7 +39253,7 @@
         <v>14.889618247386759</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>165</v>
       </c>
@@ -39221,7 +39357,7 @@
         <v>14.547728664763717</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>155</v>
       </c>
@@ -39325,7 +39461,7 @@
         <v>12.783884912891986</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>158</v>
       </c>
@@ -39429,7 +39565,7 @@
         <v>12.34880176140536</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>105</v>
       </c>
@@ -39533,7 +39669,7 @@
         <v>11.811929364896073</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>174</v>
       </c>
@@ -39637,7 +39773,7 @@
         <v>10.915677080139373</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>128</v>
       </c>
@@ -39741,7 +39877,7 @@
         <v>9.9610213310104534</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>70</v>
       </c>
@@ -39845,7 +39981,7 @@
         <v>9.7420057167776726</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>118</v>
       </c>
@@ -39949,7 +40085,7 @@
         <v>9.4395581108545041</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>162</v>
       </c>
@@ -40053,7 +40189,7 @@
         <v>9.1553883310104531</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>114</v>
       </c>
@@ -40157,7 +40293,7 @@
         <v>8.9673645818815331</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>54</v>
       </c>
@@ -40261,7 +40397,7 @@
         <v>8.5723288568129323</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>171</v>
       </c>
@@ -40355,7 +40491,7 @@
         <v>8.3831285375832536</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>84</v>
       </c>
@@ -40449,7 +40585,7 @@
         <v>8.2491153583888366</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>116</v>
       </c>
@@ -40553,7 +40689,7 @@
         <v>8.1185478323632125</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
@@ -40657,7 +40793,7 @@
         <v>7.9803683310104523</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>148</v>
       </c>
@@ -40761,7 +40897,7 @@
         <v>7.9306798518518509</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>110</v>
       </c>
@@ -40865,7 +41001,7 @@
         <v>7.5101482378752884</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>127</v>
       </c>
@@ -40969,7 +41105,7 @@
         <v>7.3527014146341463</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>167</v>
       </c>
@@ -41073,7 +41209,7 @@
         <v>6.851202498257841</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>205</v>
       </c>
@@ -41177,7 +41313,7 @@
         <v>6.3474776189376438</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -41281,7 +41417,7 @@
         <v>5.9705878742724092</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>189</v>
       </c>
@@ -41385,7 +41521,7 @@
         <v>5.111078665505226</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>179</v>
       </c>
@@ -41445,7 +41581,7 @@
         <v>4.7068037614053617</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>135</v>
       </c>
@@ -41539,7 +41675,7 @@
         <v>4.542656358388836</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>147</v>
       </c>
@@ -41643,7 +41779,7 @@
         <v>4.3951767459584303</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>191</v>
       </c>
@@ -41737,7 +41873,7 @@
         <v>4.3650659403513412</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>141</v>
       </c>
@@ -41841,7 +41977,7 @@
         <v>4.3112116655052262</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>138</v>
       </c>
@@ -41945,7 +42081,7 @@
         <v>3.8523689371362049</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>185</v>
       </c>
@@ -42049,7 +42185,7 @@
         <v>3.3483330000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>184</v>
       </c>
@@ -42153,7 +42289,7 @@
         <v>3.3217576189376445</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>159</v>
       </c>
@@ -42257,7 +42393,7 @@
         <v>3.0309747491289203</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>209</v>
       </c>
@@ -42361,7 +42497,7 @@
         <v>2.9798658327526133</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>144</v>
       </c>
@@ -42465,7 +42601,7 @@
         <v>2.9611757491289201</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>113</v>
       </c>
@@ -42569,7 +42705,7 @@
         <v>2.9320557491289203</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>130</v>
       </c>
@@ -42673,7 +42809,7 @@
         <v>2.7871869999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>160</v>
       </c>
@@ -42777,7 +42913,7 @@
         <v>2.6230998327526134</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>164</v>
       </c>
@@ -42881,7 +43017,7 @@
         <v>2.5720338327526133</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>139</v>
       </c>
@@ -42975,7 +43111,7 @@
         <v>2.1552441791944181</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>175</v>
       </c>
@@ -43079,7 +43215,7 @@
         <v>2.1049089580908031</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>106</v>
       </c>
@@ -43183,7 +43319,7 @@
         <v>2.0404558327526132</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>194</v>
       </c>
@@ -43287,7 +43423,7 @@
         <v>1.9904359580908031</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
@@ -43391,7 +43527,7 @@
         <v>1.9002669999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>156</v>
       </c>
@@ -43485,7 +43621,7 @@
         <v>1.6171705895972091</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>215</v>
       </c>
@@ -43589,7 +43725,7 @@
         <v>1.6112758729792147</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>193</v>
       </c>
@@ -43693,7 +43829,7 @@
         <v>1.5529668729792148</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>196</v>
       </c>
@@ -43797,7 +43933,7 @@
         <v>1.532297</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>149</v>
       </c>
@@ -43901,7 +44037,7 @@
         <v>1.4078569259259259</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
@@ -44005,7 +44141,7 @@
         <v>1.340794</v>
       </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>124</v>
       </c>
@@ -44109,7 +44245,7 @@
         <v>1.181137925925926</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>157</v>
       </c>
@@ -44213,7 +44349,7 @@
         <v>1.1580949790454016</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>176</v>
       </c>
@@ -44317,7 +44453,7 @@
         <v>1.0764009163763066</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>183</v>
       </c>
@@ -44421,7 +44557,7 @@
         <v>1.0165198729792149</v>
       </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>177</v>
       </c>
@@ -44525,7 +44661,7 @@
         <v>1.009197589597209</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>199</v>
       </c>
@@ -44629,7 +44765,7 @@
         <v>0.99075091637630663</v>
       </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>206</v>
       </c>
@@ -44733,7 +44869,7 @@
         <v>0.98821791637630663</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
@@ -44837,7 +44973,7 @@
         <v>0.97735191637630658</v>
       </c>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>204</v>
       </c>
@@ -44941,7 +45077,7 @@
         <v>0.62307100000000015</v>
       </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>192</v>
       </c>
@@ -45045,7 +45181,7 @@
         <v>0.234981</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>137</v>
       </c>
@@ -45149,7 +45285,7 @@
         <v>0.16306299999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -45253,7 +45389,7 @@
         <v>0.155751</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
@@ -45357,7 +45493,7 @@
         <v>0.15379600000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>188</v>
       </c>
@@ -45461,7 +45597,7 @@
         <v>0.102967</v>
       </c>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>178</v>
       </c>
@@ -45565,7 +45701,7 @@
         <v>8.6335999999999996E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>198</v>
       </c>
@@ -45669,7 +45805,7 @@
         <v>8.5657999999999998E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>197</v>
       </c>
@@ -45773,7 +45909,7 @@
         <v>7.3669999999999985E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>216</v>
       </c>
@@ -45877,7 +46013,7 @@
         <v>4.7859000000000006E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -45971,7 +46107,7 @@
         <v>2.2157E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>168</v>
       </c>
@@ -46075,7 +46211,7 @@
         <v>1.5692999999999999E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
@@ -46169,7 +46305,7 @@
         <v>1.5579000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
@@ -46273,7 +46409,7 @@
         <v>1.5118000000000003E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>218</v>
       </c>
@@ -46377,7 +46513,7 @@
         <v>9.6539999999999994E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>208</v>
       </c>
@@ -46481,7 +46617,7 @@
         <v>6.0039999999999998E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>186</v>
       </c>
@@ -46585,7 +46721,7 @@
         <v>4.4290000000000006E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>207</v>
       </c>
@@ -46689,7 +46825,7 @@
         <v>3.7780000000000001E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>202</v>
       </c>
@@ -46793,7 +46929,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>212</v>
       </c>
@@ -46897,7 +47033,7 @@
         <v>2.3040000000000001E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>181</v>
       </c>
@@ -47001,7 +47137,7 @@
         <v>2.215E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>213</v>
       </c>
@@ -47105,7 +47241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>219</v>
       </c>
@@ -47209,7 +47345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>217</v>
       </c>
@@ -47313,7 +47449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -47417,7 +47553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -47521,7 +47657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>222</v>
       </c>
@@ -47625,7 +47761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
@@ -47729,7 +47865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
@@ -47833,7 +47969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -47937,7 +48073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
@@ -48041,7 +48177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -48145,7 +48281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
@@ -48199,7 +48335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
@@ -48289,7 +48425,7 @@
       <c r="AG230" s="3"/>
       <c r="AH230" s="3"/>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>230</v>
       </c>
@@ -48391,6 +48527,140 @@
       </c>
       <c r="AH231" s="8">
         <v>19868.961737487538</v>
+      </c>
+    </row>
+    <row r="232" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B232" s="10">
+        <f>SUM(B2:B231)</f>
+        <v>47298.774000000005</v>
+      </c>
+      <c r="C232" s="10">
+        <f t="shared" ref="C232:AH232" si="0">SUM(C2:C231)</f>
+        <v>53699.064761999987</v>
+      </c>
+      <c r="D232" s="10">
+        <f t="shared" si="0"/>
+        <v>63713.219999999994</v>
+      </c>
+      <c r="E232" s="10">
+        <f t="shared" si="0"/>
+        <v>63854.623687000007</v>
+      </c>
+      <c r="F232" s="10">
+        <f t="shared" si="0"/>
+        <v>63402.31343899999</v>
+      </c>
+      <c r="G232" s="10">
+        <f t="shared" si="0"/>
+        <v>70453.691797000021</v>
+      </c>
+      <c r="H232" s="10">
+        <f t="shared" si="0"/>
+        <v>77831.660609999963</v>
+      </c>
+      <c r="I232" s="10">
+        <f t="shared" si="0"/>
+        <v>85451.292403000029</v>
+      </c>
+      <c r="J232" s="10">
+        <f t="shared" si="0"/>
+        <v>95077.955332000027</v>
+      </c>
+      <c r="K232" s="10">
+        <f t="shared" si="0"/>
+        <v>95940.382631</v>
+      </c>
+      <c r="L232" s="10">
+        <f t="shared" si="0"/>
+        <v>104291.38355999997</v>
+      </c>
+      <c r="M232" s="10">
+        <f t="shared" si="0"/>
+        <v>120374.07728900004</v>
+      </c>
+      <c r="N232" s="10">
+        <f t="shared" si="0"/>
+        <v>126351.60708999995</v>
+      </c>
+      <c r="O232" s="10">
+        <f t="shared" si="0"/>
+        <v>148293.55889599997</v>
+      </c>
+      <c r="P232" s="10">
+        <f t="shared" si="0"/>
+        <v>149802.33556300006</v>
+      </c>
+      <c r="Q232" s="10">
+        <f t="shared" si="0"/>
+        <v>159017.65091799997</v>
+      </c>
+      <c r="R232" s="10">
+        <f t="shared" si="0"/>
+        <v>161634.24908800001</v>
+      </c>
+      <c r="S232" s="10">
+        <f t="shared" si="0"/>
+        <v>177204.63843700002</v>
+      </c>
+      <c r="T232" s="10">
+        <f t="shared" si="0"/>
+        <v>194143.89431500001</v>
+      </c>
+      <c r="U232" s="10">
+        <f t="shared" si="0"/>
+        <v>220652.76680000004</v>
+      </c>
+      <c r="V232" s="10">
+        <f t="shared" si="0"/>
+        <v>246065.12825399998</v>
+      </c>
+      <c r="W232" s="10">
+        <f t="shared" si="0"/>
+        <v>294874.64787299995</v>
+      </c>
+      <c r="X232" s="10">
+        <f t="shared" si="0"/>
+        <v>264771.17975599994</v>
+      </c>
+      <c r="Y232" s="10">
+        <f t="shared" si="0"/>
+        <v>282849.73995500017</v>
+      </c>
+      <c r="Z232" s="10">
+        <f t="shared" si="0"/>
+        <v>308532.16254900035</v>
+      </c>
+      <c r="AA232" s="10">
+        <f t="shared" si="0"/>
+        <v>329181.09855999995</v>
+      </c>
+      <c r="AB232" s="10">
+        <f t="shared" si="0"/>
+        <v>334284.32737499953</v>
+      </c>
+      <c r="AC232" s="10">
+        <f t="shared" si="0"/>
+        <v>343172.0829049999</v>
+      </c>
+      <c r="AD232" s="10">
+        <f t="shared" si="0"/>
+        <v>360679.10970300017</v>
+      </c>
+      <c r="AE232" s="10">
+        <f t="shared" si="0"/>
+        <v>350982.23472299974</v>
+      </c>
+      <c r="AF232" s="10">
+        <f t="shared" si="0"/>
+        <v>377453.13154899934</v>
+      </c>
+      <c r="AG232" s="10">
+        <f t="shared" si="0"/>
+        <v>415389.17385999992</v>
+      </c>
+      <c r="AH232" s="10">
+        <f t="shared" si="0"/>
+        <v>424907.31713400083</v>
       </c>
     </row>
   </sheetData>
